--- a/data/recruitment/recruitment.xlsx
+++ b/data/recruitment/recruitment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikemcwilliam/Documents/PostDoc/01_Trimodal/trimodal_ipm/data/recruitment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554525E1-DE18-BF41-B605-D759DA1D7336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F6A277-514B-E54C-926C-F0128A8AF6FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="16260" windowHeight="15120" xr2:uid="{05D4F892-D58B-F64B-AE8B-686A6981E892}"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="20420" windowHeight="15600" xr2:uid="{05D4F892-D58B-F64B-AE8B-686A6981E892}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F473900-4E2F-5E43-A25F-F7226C2BC6C5}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
